--- a/data/unique_aff.xlsx
+++ b/data/unique_aff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nlesc.sharepoint.com/sites/community/Shared Documents/data_analysis_events/NLeSc_workshop_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{122AC586-BCAB-4246-8B9C-3E336DC4A906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{122AC586-BCAB-4246-8B9C-3E336DC4A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91D665A7-989B-AA42-90DF-A2273C50257E}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15020" xr2:uid="{5305868D-7B4F-4A49-978B-E34432471178}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="unique_aff" localSheetId="0">Sheet1!$A$1:$E$254</definedName>
+    <definedName name="unique_aff" localSheetId="0">Sheet1!$A$1:$E$287</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="338">
   <si>
     <t>affiliation</t>
   </si>
@@ -85,9 +85,6 @@
     <t>AMSTERDAM UNIVERSITY OF APPLIED SCIENCE</t>
   </si>
   <si>
-    <t>Amsterdam University of Applied Sciences</t>
-  </si>
-  <si>
     <t>University of Applied Sciences / Hogeschool</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>ASTRON</t>
   </si>
   <si>
-    <t>Astron</t>
-  </si>
-  <si>
     <t>NWO</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>AARNET</t>
   </si>
   <si>
-    <t>Australia's Academic and Research Network</t>
-  </si>
-  <si>
     <t>Consortium</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>BELASTINGDIENST</t>
   </si>
   <si>
-    <t>Belastingdienst</t>
-  </si>
-  <si>
     <t>Government Institute</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>CWI.NL</t>
   </si>
   <si>
-    <t>Centrum Wiskunde &amp; Informatica</t>
-  </si>
-  <si>
     <t>DANS</t>
   </si>
   <si>
@@ -172,21 +157,12 @@
     <t>UN-IHE.ORG</t>
   </si>
   <si>
-    <t>Delft Institute for Water Education</t>
-  </si>
-  <si>
     <t>DELTARES.NL</t>
   </si>
   <si>
-    <t>Deltares</t>
-  </si>
-  <si>
     <t>DOMINICAN COLLEGE</t>
   </si>
   <si>
-    <t>Dominican College</t>
-  </si>
-  <si>
     <t>University</t>
   </si>
   <si>
@@ -196,51 +172,30 @@
     <t>DIFFER.NL</t>
   </si>
   <si>
-    <t>Dutch Institute for Fundamental Energy Research</t>
-  </si>
-  <si>
     <t>MINDEF.NL</t>
   </si>
   <si>
-    <t>Dutch Ministery of Defense</t>
-  </si>
-  <si>
     <t>MINOCW.NL</t>
   </si>
   <si>
-    <t>Dutch Ministery OWC</t>
-  </si>
-  <si>
     <t>NIKHEF</t>
   </si>
   <si>
-    <t>Dutch National Institute for Subatomic Physics (NIKHEF)</t>
-  </si>
-  <si>
     <t>DTL</t>
   </si>
   <si>
-    <t>Dutch Techcentre for Life Sciences</t>
-  </si>
-  <si>
     <t>DTLS.NL</t>
   </si>
   <si>
     <t>ELIFESCIENCES.ORG</t>
   </si>
   <si>
-    <t>eLife</t>
-  </si>
-  <si>
     <t>Publisher</t>
   </si>
   <si>
     <t>ERASMUS MC</t>
   </si>
   <si>
-    <t>Erasmus MC</t>
-  </si>
-  <si>
     <t>University Medical Center</t>
   </si>
   <si>
@@ -259,9 +214,6 @@
     <t>ERASMUS UNIVERSITY ROTTERDAM</t>
   </si>
   <si>
-    <t>Erasmus University Rotterdam </t>
-  </si>
-  <si>
     <t>RSM.NL</t>
   </si>
   <si>
@@ -289,63 +241,36 @@
     <t>EXETER.AC.UK</t>
   </si>
   <si>
-    <t>Exeter University</t>
-  </si>
-  <si>
     <t>FLUVES.COM</t>
   </si>
   <si>
-    <t>Fluves</t>
-  </si>
-  <si>
     <t>Private Company</t>
   </si>
   <si>
     <t>HOGESCHOOL ARNHEM EN NIJMEGEN</t>
   </si>
   <si>
-    <t>Hogeschool Arnhem en Nijmegen</t>
-  </si>
-  <si>
     <t>HVA.NL</t>
   </si>
   <si>
-    <t>Hogeschool van Amsterdam</t>
-  </si>
-  <si>
     <t>HUYGENS.KNAW.NL</t>
   </si>
   <si>
-    <t>Huygens Institute</t>
-  </si>
-  <si>
     <t>INDIAN INSTITUTE OF SCIENCE</t>
   </si>
   <si>
-    <t>Indian Institute of Science</t>
-  </si>
-  <si>
     <t>NIOD.KNAW.NL</t>
   </si>
   <si>
-    <t>Institute for War, Holocaust and Genocide Studies</t>
-  </si>
-  <si>
     <t>ISTITUTO ITALIANO DI TECNOLOGIA</t>
   </si>
   <si>
-    <t>Italian Institute of Technology</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
     <t>IISG.NL</t>
   </si>
   <si>
-    <t>International Institute for Social History (IISG)</t>
-  </si>
-  <si>
     <t>Archive / Museum</t>
   </si>
   <si>
@@ -355,9 +280,6 @@
     <t>DEPARTMENT OF GEOGRAPHY, JMI</t>
   </si>
   <si>
-    <t>Jamia Millia Islamia University</t>
-  </si>
-  <si>
     <t>JIVE.EU</t>
   </si>
   <si>
@@ -367,9 +289,6 @@
     <t>KING'S COLLEGE LONDON</t>
   </si>
   <si>
-    <t>King's College London</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
@@ -385,30 +304,18 @@
     <t>KB.NL</t>
   </si>
   <si>
-    <t>Koninklijke Bibliotheek</t>
-  </si>
-  <si>
     <t>KONINKLIJKE BIBLIOTHEEK, NATIONAL LIBRARY OF THE NETHERLANDS</t>
   </si>
   <si>
     <t>LA SAPIENZA UNIVERSITY</t>
   </si>
   <si>
-    <t>La Sapienza University</t>
-  </si>
-  <si>
     <t>LANCASTER UNIVERSITY</t>
   </si>
   <si>
-    <t>Lancaster University</t>
-  </si>
-  <si>
     <t>STRW.LEIDENUNIV.NL</t>
   </si>
   <si>
-    <t>Leiden University</t>
-  </si>
-  <si>
     <t>BB.LEIDENUNIV.NL</t>
   </si>
   <si>
@@ -430,9 +337,6 @@
     <t>LEIDEN UNIVERSITY MEDICAL CENTER</t>
   </si>
   <si>
-    <t>Leiden University Medical Center</t>
-  </si>
-  <si>
     <t>LUMC</t>
   </si>
   <si>
@@ -442,18 +346,12 @@
     <t>KULEUVEN.BE</t>
   </si>
   <si>
-    <t>Leuven University</t>
-  </si>
-  <si>
     <t>Belgium</t>
   </si>
   <si>
     <t>MAASTRICHT UNIVERSITY</t>
   </si>
   <si>
-    <t>Maastricht University</t>
-  </si>
-  <si>
     <t>MAASTRICHT UNIVERSITY LIBRARY</t>
   </si>
   <si>
@@ -463,33 +361,21 @@
     <t>MAASTRO CLINIC</t>
   </si>
   <si>
-    <t>Maastro Clinic</t>
-  </si>
-  <si>
     <t>MAX PLANCK INSTITUTE FOR RADIO ASTRONOMY</t>
   </si>
   <si>
-    <t>Max Planck Institute for Radio Astronomy</t>
-  </si>
-  <si>
     <t>MPI</t>
   </si>
   <si>
     <t>MAX PLANCK INSTITUTE FOR RESEARCH ON COLLECTIVE GOODS</t>
   </si>
   <si>
-    <t>Max Planck Institute for Research on Collective Goods</t>
-  </si>
-  <si>
     <t>NPI</t>
   </si>
   <si>
     <t>MICROSOFT</t>
   </si>
   <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -634,39 +520,24 @@
     <t>NATIONALE POLITIE</t>
   </si>
   <si>
-    <t>Nationale Politie</t>
-  </si>
-  <si>
     <t>POLITIE.NL</t>
   </si>
   <si>
     <t>BEELDENGELUID.NL</t>
   </si>
   <si>
-    <t>Nederlands Instituut voor Beeld en Geluid</t>
-  </si>
-  <si>
     <t>NIN.KNAW.NL</t>
   </si>
   <si>
-    <t>Netherlands Institute for Neuroscience</t>
-  </si>
-  <si>
     <t>Research Institute</t>
   </si>
   <si>
     <t>SRON.NL</t>
   </si>
   <si>
-    <t>Netherlands Institute for Space Research (SRON)</t>
-  </si>
-  <si>
     <t>NETHERLANDS INSTITUTE OF ECOLOGY</t>
   </si>
   <si>
-    <t>Netherlands Institute of Ecology (NIOO-KNAW)</t>
-  </si>
-  <si>
     <t>NIOO-KNAW (NETHERLANDS INSTITUTE OF ECOLOGY)</t>
   </si>
   <si>
@@ -676,24 +547,15 @@
     <t>NIDI.NL</t>
   </si>
   <si>
-    <t>Netherlands Interdisciplinary Demographic Institute</t>
-  </si>
-  <si>
     <t>NYUAD</t>
   </si>
   <si>
-    <t>New York University Abu Dhabi</t>
-  </si>
-  <si>
     <t>UAE</t>
   </si>
   <si>
     <t>NOKIA</t>
   </si>
   <si>
-    <t>Nokia</t>
-  </si>
-  <si>
     <t>Finland</t>
   </si>
   <si>
@@ -709,42 +571,24 @@
     <t>PEGA.COM</t>
   </si>
   <si>
-    <t>Pega</t>
-  </si>
-  <si>
     <t>PHILIPS LIGHTING RESEARCH</t>
   </si>
   <si>
-    <t>Philips</t>
-  </si>
-  <si>
     <t>POLARIKS.COM</t>
   </si>
   <si>
-    <t>Polariks</t>
-  </si>
-  <si>
     <t>PRINSESMAXIMACENTRUM.NL</t>
   </si>
   <si>
-    <t>Princess Maxima Center</t>
-  </si>
-  <si>
     <t>RADBOUD UMC</t>
   </si>
   <si>
-    <t>Radboud UMC</t>
-  </si>
-  <si>
     <t>RADBOUD UNIVERSITY MEDICAL CENTER</t>
   </si>
   <si>
     <t>LET.RU.NL</t>
   </si>
   <si>
-    <t>Radboud University Nijmegen</t>
-  </si>
-  <si>
     <t>RADBOUD UNIVERSITY NIJMEGEN</t>
   </si>
   <si>
@@ -766,9 +610,6 @@
     <t>RIJKZWAAN.NL</t>
   </si>
   <si>
-    <t>Rijk Zwaan</t>
-  </si>
-  <si>
     <t>RIVM</t>
   </si>
   <si>
@@ -778,30 +619,18 @@
     <t>ROBOVALLEY</t>
   </si>
   <si>
-    <t>Robovalley</t>
-  </si>
-  <si>
     <t>RWTH AACHEN</t>
   </si>
   <si>
-    <t>RWTH Aachen</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
     <t>SAXION</t>
   </si>
   <si>
-    <t>Saxion</t>
-  </si>
-  <si>
     <t>SPINOZACENTRE.NL</t>
   </si>
   <si>
-    <t>Spinoza Centre for Neuroimaging</t>
-  </si>
-  <si>
     <t>KNAW Institute</t>
   </si>
   <si>
@@ -814,15 +643,9 @@
     <t>SURFSARA.NL</t>
   </si>
   <si>
-    <t>SURF Sara</t>
-  </si>
-  <si>
     <t>EAWAG</t>
   </si>
   <si>
-    <t>Swiss Federal Institute of Aquatic Science and Technology</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -832,9 +655,6 @@
     <t>TECHNOPOLIS BV</t>
   </si>
   <si>
-    <t>Technopolis</t>
-  </si>
-  <si>
     <t>TECHNOPOLIS GROUP</t>
   </si>
   <si>
@@ -850,27 +670,18 @@
     <t>HHS.NL</t>
   </si>
   <si>
-    <t>the Hague University of Applied Sciences</t>
-  </si>
-  <si>
     <t>JOINT INSTITUTE FOR VLBI ERIC</t>
   </si>
   <si>
     <t>THE TAX JUSTICE NETWORK</t>
   </si>
   <si>
-    <t>The Tax Justice Network</t>
-  </si>
-  <si>
     <t>Charity</t>
   </si>
   <si>
     <t>DELFT UNIVERSITY OF TECHNOLOGY</t>
   </si>
   <si>
-    <t>TU Delft</t>
-  </si>
-  <si>
     <t>DTU</t>
   </si>
   <si>
@@ -901,9 +712,6 @@
     <t>DATA STEWARD TU/E</t>
   </si>
   <si>
-    <t>TU/e</t>
-  </si>
-  <si>
     <t>EINDHOVEN UNIVERSITY OF TECHNOLOGY</t>
   </si>
   <si>
@@ -934,9 +742,6 @@
     <t>AMC MEDICAL RESEARCH</t>
   </si>
   <si>
-    <t>UMC Amsterdam</t>
-  </si>
-  <si>
     <t>AMC.NL</t>
   </si>
   <si>
@@ -946,9 +751,6 @@
     <t>BIOINFORMATICIAN AT UMC UTRECHT</t>
   </si>
   <si>
-    <t>UMC Utrecht</t>
-  </si>
-  <si>
     <t>UMC</t>
   </si>
   <si>
@@ -964,24 +766,15 @@
     <t>UNIBO.IT</t>
   </si>
   <si>
-    <t>University of Bologna</t>
-  </si>
-  <si>
     <t>UNIVERSITY OF CAPE TOWN</t>
   </si>
   <si>
-    <t>University of Cape Town</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
     <t>ASTRO.RUG.NL</t>
   </si>
   <si>
-    <t>University of Groningen</t>
-  </si>
-  <si>
     <t>CENTER FOR INFORMATION TECHNOLOGY, RUG</t>
   </si>
   <si>
@@ -1006,39 +799,24 @@
     <t>UNIVERSITY OF MICHIGAN</t>
   </si>
   <si>
-    <t>University of Michigan</t>
-  </si>
-  <si>
     <t>STUDENTI.UNIPR.IT</t>
   </si>
   <si>
-    <t>University of Parma</t>
-  </si>
-  <si>
     <t>UNIVERSITY OF PORTO, EXCHANGE PROGRAM</t>
   </si>
   <si>
-    <t>University of Porto</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
     <t>UNIVERSITY OF REY JUAN CARLOS, MADRID</t>
   </si>
   <si>
-    <t>University of Rey Juan Carlos</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
     <t>TWENTE UNIVERSITY</t>
   </si>
   <si>
-    <t>University of Twente</t>
-  </si>
-  <si>
     <t>UNIVERSITY OF TWENTE</t>
   </si>
   <si>
@@ -1048,18 +826,12 @@
     <t>UNIVERSITY OF VIENNA</t>
   </si>
   <si>
-    <t>University of Vienna</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
     <t>STUDENTS.UU.NL</t>
   </si>
   <si>
-    <t>Utrecht University</t>
-  </si>
-  <si>
     <t>UTRECHT UNIVERSITY</t>
   </si>
   <si>
@@ -1075,9 +847,6 @@
     <t>AMC.UVA.NL</t>
   </si>
   <si>
-    <t>UvA</t>
-  </si>
-  <si>
     <t>SILS</t>
   </si>
   <si>
@@ -1114,15 +883,9 @@
     <t>VIB.BE</t>
   </si>
   <si>
-    <t>Vlaams Instituut voor Biotechnologie</t>
-  </si>
-  <si>
     <t>STUDENT.VU.NL</t>
   </si>
   <si>
-    <t>VU Amsterdam</t>
-  </si>
-  <si>
     <t>VRIJE UNIVERSITEIT</t>
   </si>
   <si>
@@ -1150,9 +913,6 @@
     <t>WAGENINGEN UNIVERSITY</t>
   </si>
   <si>
-    <t>Wageningen University</t>
-  </si>
-  <si>
     <t>WAGENINGEN UNIVERSITY &amp; RESEARCH</t>
   </si>
   <si>
@@ -1162,28 +922,151 @@
     <t>WESTERDIJK FUNGAL BIODIVERSITY INSTITUTE</t>
   </si>
   <si>
-    <t>Westerdijk Fungal Biodiversity Institute</t>
-  </si>
-  <si>
     <t>WESTERDIJKINSTITUTE.NL</t>
   </si>
   <si>
     <t>WESTERN UNIVERSITY</t>
   </si>
   <si>
-    <t>Western University</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
     <t>ZSL.ORG</t>
   </si>
   <si>
-    <t>Zoological Society of London</t>
-  </si>
-  <si>
     <t>NIKHEF.NL</t>
+  </si>
+  <si>
+    <t>BSI.RU.NL</t>
+  </si>
+  <si>
+    <t>CENTRUM WISKUNDE &amp; INFORMATICA</t>
+  </si>
+  <si>
+    <t>DUTCH INSTITUTE FOR FUNDAMENTAL ENERGY RESEARCH</t>
+  </si>
+  <si>
+    <t>DUTCH NATIONAL INSTITUTE FOR SUBATOMIC PHYSICS (NIKHEF)</t>
+  </si>
+  <si>
+    <t>DUTCH TECHCENTRE FOR LIFE SCIENCES</t>
+  </si>
+  <si>
+    <t>ELIFE</t>
+  </si>
+  <si>
+    <t>EXETER UNIVERSITY</t>
+  </si>
+  <si>
+    <t>HOGESCHOOL VAN AMSTERDAM</t>
+  </si>
+  <si>
+    <t>HUYGENS INSTITUTE</t>
+  </si>
+  <si>
+    <t>INSTITUTE FOR WAR, HOLOCAUST AND GENOCIDE STUDIES</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL INSTITUTE FOR SOCIAL HISTORY (IISG)</t>
+  </si>
+  <si>
+    <t>JAMIA MILLIA ISLAMIA UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UMC AMSTERDAM</t>
+  </si>
+  <si>
+    <t>NEDERLANDS INSTITUUT VOOR BEELD EN GELUID</t>
+  </si>
+  <si>
+    <t>DELTARES</t>
+  </si>
+  <si>
+    <t>AUSTRALIA'S ACADEMIC AND RESEARCH NETWORK</t>
+  </si>
+  <si>
+    <t>SWISS FEDERAL INSTITUTE OF AQUATIC SCIENCE AND TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>ERASMUS UNIVERSITY ROTTERDAM </t>
+  </si>
+  <si>
+    <t>FLUVES</t>
+  </si>
+  <si>
+    <t>THE HAGUE UNIVERSITY OF APPLIED SCIENCES</t>
+  </si>
+  <si>
+    <t>KONINKLIJKE BIBLIOTHEEK</t>
+  </si>
+  <si>
+    <t>LEUVEN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>DUTCH MINISTERY OF DEFENSE</t>
+  </si>
+  <si>
+    <t>DUTCH MINISTERY OWC</t>
+  </si>
+  <si>
+    <t>NETHERLANDS INSTITUTE OF ECOLOGY (NIOO-KNAW)</t>
+  </si>
+  <si>
+    <t>NETHERLANDS INTERDISCIPLINARY DEMOGRAPHIC INSTITUTE</t>
+  </si>
+  <si>
+    <t>NETHERLANDS INSTITUTE FOR NEUROSCIENCE</t>
+  </si>
+  <si>
+    <t>NEW YORK UNIVERSITY ABU DHABI</t>
+  </si>
+  <si>
+    <t>PEGA</t>
+  </si>
+  <si>
+    <t>PHILIPS</t>
+  </si>
+  <si>
+    <t>POLARIKS</t>
+  </si>
+  <si>
+    <t>PRINCESS MAXIMA CENTER</t>
+  </si>
+  <si>
+    <t>RIJK ZWAAN</t>
+  </si>
+  <si>
+    <t>SPINOZA CENTRE FOR NEUROIMAGING</t>
+  </si>
+  <si>
+    <t>NETHERLANDS INSTITUTE FOR SPACE RESEARCH (SRON)</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF PARMA</t>
+  </si>
+  <si>
+    <t>SURF SARA</t>
+  </si>
+  <si>
+    <t>DELFT INSTITUTE FOR WATER EDUCATION</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF BOLOGNA</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF PORTO</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF REY JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>VLAAMS INSTITUUT VOOR BIOTECHNOLOGIE</t>
+  </si>
+  <si>
+    <t>ZOOLOGICAL SOCIETY OF LONDON</t>
+  </si>
+  <si>
+    <t>DUTCH MINISTRY OWC</t>
   </si>
 </sst>
 </file>
@@ -1539,16 +1422,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F45B2B4-7534-CB46-A4BA-39D7578F3E45}">
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
     <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -1593,183 +1476,183 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1777,95 +1660,95 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1874,15 +1757,15 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1891,1024 +1774,1015 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>296</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>316</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>337</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>317</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>298</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>299</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>312</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>303</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>303</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="C75" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
         <v>12</v>
@@ -2916,16 +2790,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -2933,16 +2807,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
@@ -2950,16 +2824,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
         <v>12</v>
@@ -2967,16 +2841,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
@@ -2984,16 +2858,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
@@ -3001,16 +2875,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -3018,16 +2892,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -3035,16 +2909,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
@@ -3052,50 +2926,50 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
@@ -3103,16 +2977,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
@@ -3120,16 +2994,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -3137,16 +3011,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
@@ -3154,16 +3028,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
         <v>12</v>
@@ -3171,16 +3045,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="E96" t="s">
         <v>12</v>
@@ -3188,16 +3062,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
@@ -3205,1274 +3079,1274 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>210</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="C149" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="C151" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="B152" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="C152" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="B153" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="C153" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D153" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>229</v>
+        <v>320</v>
       </c>
       <c r="C154" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D154" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="B155" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="C155" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="C156" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="D156" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="B157" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="D157" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="D158" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="B159" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="C159" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="C160" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D160" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E160" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="B162" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="C162" t="s">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="D162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>251</v>
+        <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D167" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="C168" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="B169" t="s">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="C169" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="B170" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="C170" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="D170" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="C171" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="D171" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
         <v>12</v>
@@ -4480,1399 +4354,1963 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B174" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="D174" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="D175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>273</v>
+        <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="C181" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="B182" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="C182" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="C183" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>283</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B189" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="C189" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="D189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="C190" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="D190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="B192" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="B193" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="C193" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="C194" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="B195" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C195" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D195" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C196" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D196" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>295</v>
+        <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C197" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>297</v>
+        <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B202" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C202" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C203" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>304</v>
+        <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="D204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>306</v>
+        <v>78</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="C205" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="C206" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="C207" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="C208" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="C209" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="C213" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>320</v>
+        <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>321</v>
+        <v>224</v>
       </c>
       <c r="C215" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>323</v>
+        <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="C216" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>325</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>327</v>
+        <v>224</v>
       </c>
       <c r="C217" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>328</v>
+        <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>327</v>
+        <v>224</v>
       </c>
       <c r="C218" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>327</v>
+        <v>224</v>
       </c>
       <c r="C219" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>331</v>
+        <v>224</v>
       </c>
       <c r="C220" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
-        <v>332</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>335</v>
+        <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>336</v>
+        <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="C223" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="B224" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="C224" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>338</v>
+        <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="C225" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C226" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D226" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E226" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>341</v>
+        <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="C227" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E227" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>342</v>
+        <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="C228" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E228" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>343</v>
+        <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="C229" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="C230" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E231" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>347</v>
+        <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C233" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E233" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B234" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C234" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E234" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>349</v>
+        <v>237</v>
       </c>
       <c r="B235" t="s">
-        <v>340</v>
+        <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E235" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>350</v>
+        <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="C236" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D236" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>351</v>
+        <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="C237" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E237" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E238" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>354</v>
+        <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="C239" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>356</v>
+        <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="C240" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>357</v>
+        <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="C241" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E241" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>358</v>
+        <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="C242" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E243" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>360</v>
+        <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="C244" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E244" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>361</v>
+        <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C245" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E245" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="B246" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C246" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E246" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C247" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D247" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E247" t="s">
-        <v>13</v>
+        <v>250</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="C248" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E248" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="C249" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E249" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>367</v>
+        <v>254</v>
       </c>
       <c r="B250" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="C250" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>368</v>
+        <v>255</v>
       </c>
       <c r="B251" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D251" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E251" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>370</v>
+        <v>256</v>
       </c>
       <c r="B252" t="s">
-        <v>369</v>
+        <v>256</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D252" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E252" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>371</v>
+        <v>258</v>
       </c>
       <c r="B253" t="s">
-        <v>372</v>
+        <v>259</v>
       </c>
       <c r="C253" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E253" t="s">
-        <v>373</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="B254" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="C254" t="s">
+        <v>36</v>
+      </c>
+      <c r="D254" t="s">
+        <v>11</v>
+      </c>
+      <c r="E254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>260</v>
+      </c>
+      <c r="B255" t="s">
+        <v>259</v>
+      </c>
+      <c r="C255" t="s">
+        <v>36</v>
+      </c>
+      <c r="D255" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>261</v>
+      </c>
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+      <c r="C256" t="s">
+        <v>36</v>
+      </c>
+      <c r="D256" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>262</v>
+      </c>
+      <c r="B257" t="s">
+        <v>259</v>
+      </c>
+      <c r="C257" t="s">
+        <v>36</v>
+      </c>
+      <c r="D257" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>263</v>
+      </c>
+      <c r="B258" t="s">
+        <v>272</v>
+      </c>
+      <c r="C258" t="s">
+        <v>36</v>
+      </c>
+      <c r="D258" t="s">
+        <v>11</v>
+      </c>
+      <c r="E258" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259" t="s">
+        <v>272</v>
+      </c>
+      <c r="C259" t="s">
+        <v>36</v>
+      </c>
+      <c r="D259" t="s">
+        <v>11</v>
+      </c>
+      <c r="E259" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260" t="s">
+        <v>272</v>
+      </c>
+      <c r="C260" t="s">
+        <v>36</v>
+      </c>
+      <c r="D260" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>266</v>
+      </c>
+      <c r="B261" t="s">
+        <v>272</v>
+      </c>
+      <c r="C261" t="s">
+        <v>36</v>
+      </c>
+      <c r="D261" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262" t="s">
+        <v>272</v>
+      </c>
+      <c r="C262" t="s">
+        <v>36</v>
+      </c>
+      <c r="D262" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>268</v>
+      </c>
+      <c r="B263" t="s">
+        <v>272</v>
+      </c>
+      <c r="C263" t="s">
+        <v>36</v>
+      </c>
+      <c r="D263" t="s">
+        <v>11</v>
+      </c>
+      <c r="E263" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>269</v>
       </c>
-      <c r="D254" t="s">
-        <v>12</v>
-      </c>
-      <c r="E254" t="s">
-        <v>105</v>
+      <c r="B264" t="s">
+        <v>272</v>
+      </c>
+      <c r="C264" t="s">
+        <v>36</v>
+      </c>
+      <c r="D264" t="s">
+        <v>11</v>
+      </c>
+      <c r="E264" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265" t="s">
+        <v>272</v>
+      </c>
+      <c r="C265" t="s">
+        <v>36</v>
+      </c>
+      <c r="D265" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>271</v>
+      </c>
+      <c r="B266" t="s">
+        <v>272</v>
+      </c>
+      <c r="C266" t="s">
+        <v>36</v>
+      </c>
+      <c r="D266" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267" t="s">
+        <v>272</v>
+      </c>
+      <c r="C267" t="s">
+        <v>36</v>
+      </c>
+      <c r="D267" t="s">
+        <v>11</v>
+      </c>
+      <c r="E267" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>273</v>
+      </c>
+      <c r="B268" t="s">
+        <v>272</v>
+      </c>
+      <c r="C268" t="s">
+        <v>36</v>
+      </c>
+      <c r="D268" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>274</v>
+      </c>
+      <c r="B269" t="s">
+        <v>272</v>
+      </c>
+      <c r="C269" t="s">
+        <v>36</v>
+      </c>
+      <c r="D269" t="s">
+        <v>11</v>
+      </c>
+      <c r="E269" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>275</v>
+      </c>
+      <c r="B270" t="s">
+        <v>335</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>276</v>
+      </c>
+      <c r="B271" t="s">
+        <v>282</v>
+      </c>
+      <c r="C271" t="s">
+        <v>36</v>
+      </c>
+      <c r="D271" t="s">
+        <v>11</v>
+      </c>
+      <c r="E271" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272" t="s">
+        <v>282</v>
+      </c>
+      <c r="C272" t="s">
+        <v>36</v>
+      </c>
+      <c r="D272" t="s">
+        <v>11</v>
+      </c>
+      <c r="E272" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273" t="s">
+        <v>282</v>
+      </c>
+      <c r="C273" t="s">
+        <v>36</v>
+      </c>
+      <c r="D273" t="s">
+        <v>11</v>
+      </c>
+      <c r="E273" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274" t="s">
+        <v>282</v>
+      </c>
+      <c r="C274" t="s">
+        <v>36</v>
+      </c>
+      <c r="D274" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275" t="s">
+        <v>282</v>
+      </c>
+      <c r="C275" t="s">
+        <v>36</v>
+      </c>
+      <c r="D275" t="s">
+        <v>11</v>
+      </c>
+      <c r="E275" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>281</v>
+      </c>
+      <c r="B276" t="s">
+        <v>282</v>
+      </c>
+      <c r="C276" t="s">
+        <v>36</v>
+      </c>
+      <c r="D276" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>282</v>
+      </c>
+      <c r="B277" t="s">
+        <v>282</v>
+      </c>
+      <c r="C277" t="s">
+        <v>36</v>
+      </c>
+      <c r="D277" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>283</v>
+      </c>
+      <c r="B278" t="s">
+        <v>282</v>
+      </c>
+      <c r="C278" t="s">
+        <v>36</v>
+      </c>
+      <c r="D278" t="s">
+        <v>11</v>
+      </c>
+      <c r="E278" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279" t="s">
+        <v>282</v>
+      </c>
+      <c r="C279" t="s">
+        <v>36</v>
+      </c>
+      <c r="D279" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>285</v>
+      </c>
+      <c r="B280" t="s">
+        <v>285</v>
+      </c>
+      <c r="C280" t="s">
+        <v>36</v>
+      </c>
+      <c r="D280" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>286</v>
+      </c>
+      <c r="B281" t="s">
+        <v>285</v>
+      </c>
+      <c r="C281" t="s">
+        <v>36</v>
+      </c>
+      <c r="D281" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>287</v>
+      </c>
+      <c r="B282" t="s">
+        <v>285</v>
+      </c>
+      <c r="C282" t="s">
+        <v>36</v>
+      </c>
+      <c r="D282" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>288</v>
+      </c>
+      <c r="B283" t="s">
+        <v>288</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>30</v>
+      </c>
+      <c r="E283" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>289</v>
+      </c>
+      <c r="B284" t="s">
+        <v>288</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
+        <v>30</v>
+      </c>
+      <c r="E284" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>290</v>
+      </c>
+      <c r="B285" t="s">
+        <v>290</v>
+      </c>
+      <c r="C285" t="s">
+        <v>36</v>
+      </c>
+      <c r="D285" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>336</v>
+      </c>
+      <c r="B286" t="s">
+        <v>336</v>
+      </c>
+      <c r="C286" t="s">
+        <v>207</v>
+      </c>
+      <c r="D286" t="s">
+        <v>11</v>
+      </c>
+      <c r="E286" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>292</v>
+      </c>
+      <c r="B287" t="s">
+        <v>336</v>
+      </c>
+      <c r="C287" t="s">
+        <v>207</v>
+      </c>
+      <c r="D287" t="s">
+        <v>11</v>
+      </c>
+      <c r="E287" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E288">
+    <sortCondition ref="B100:B288"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6089,6 +6527,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6097,20 +6541,46 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DCFD315-7CA8-4537-8120-109CE1150E9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DCFD315-7CA8-4537-8120-109CE1150E9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e79fd3a6-737d-4cf1-803d-364f639fed05"/>
+    <ds:schemaRef ds:uri="3c1663fb-7c6c-47a6-a0f9-4709fb897591"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE4D51F-0054-48D0-83AF-D1DF8CDDAD88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4B0F45-4307-4958-BD31-77C29ECE3F28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e79fd3a6-737d-4cf1-803d-364f639fed05"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3c1663fb-7c6c-47a6-a0f9-4709fb897591"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4B0F45-4307-4958-BD31-77C29ECE3F28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE4D51F-0054-48D0-83AF-D1DF8CDDAD88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/unique_aff.xlsx
+++ b/data/unique_aff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nlesc.sharepoint.com/sites/community/Shared Documents/data_analysis_events/NLeSc_workshop_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{122AC586-BCAB-4246-8B9C-3E336DC4A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91D665A7-989B-AA42-90DF-A2273C50257E}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{122AC586-BCAB-4246-8B9C-3E336DC4A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{793D71C8-1555-1544-A706-6EEDB64FBF2A}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15020" xr2:uid="{5305868D-7B4F-4A49-978B-E34432471178}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="unique_aff" localSheetId="0">Sheet1!$A$1:$E$287</definedName>
+    <definedName name="unique_aff" localSheetId="0">Sheet1!$A$1:$E$290</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="339">
   <si>
     <t>affiliation</t>
   </si>
@@ -73,9 +73,6 @@
     <t>AIIMS RISHIKESH</t>
   </si>
   <si>
-    <t>Research institute</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -631,9 +628,6 @@
     <t>SPINOZACENTRE.NL</t>
   </si>
   <si>
-    <t>KNAW Institute</t>
-  </si>
-  <si>
     <t>SURF</t>
   </si>
   <si>
@@ -1067,6 +1061,15 @@
   </si>
   <si>
     <t>DUTCH MINISTRY OWC</t>
+  </si>
+  <si>
+    <t>UVT.NL</t>
+  </si>
+  <si>
+    <t>TILBURG UNIVERSITY</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF TILBURG</t>
   </si>
 </sst>
 </file>
@@ -1422,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F45B2B4-7534-CB46-A4BA-39D7578F3E45}">
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,4854 +1465,4905 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="C40" t="s">
-        <v>47</v>
-      </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="C41" t="s">
-        <v>47</v>
-      </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
         <v>46</v>
       </c>
-      <c r="C42" t="s">
-        <v>47</v>
-      </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
         <v>54</v>
       </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
-        <v>55</v>
-      </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
         <v>54</v>
       </c>
-      <c r="C46" t="s">
-        <v>55</v>
-      </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
         <v>54</v>
       </c>
-      <c r="C47" t="s">
-        <v>55</v>
-      </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
         <v>54</v>
       </c>
-      <c r="C48" t="s">
-        <v>55</v>
-      </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
         <v>54</v>
       </c>
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
         <v>54</v>
       </c>
-      <c r="C50" t="s">
-        <v>55</v>
-      </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>310</v>
+      </c>
+      <c r="C53" t="s">
         <v>62</v>
       </c>
-      <c r="B53" t="s">
-        <v>312</v>
-      </c>
-      <c r="C53" t="s">
-        <v>63</v>
-      </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B60" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" t="s">
         <v>71</v>
       </c>
-      <c r="B62" t="s">
-        <v>304</v>
-      </c>
-      <c r="C62" t="s">
-        <v>72</v>
-      </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
         <v>69</v>
-      </c>
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B67" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
         <v>75</v>
       </c>
-      <c r="B68" t="s">
-        <v>76</v>
-      </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
         <v>77</v>
-      </c>
-      <c r="B70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
         <v>79</v>
       </c>
-      <c r="B72" t="s">
-        <v>80</v>
-      </c>
       <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
         <v>89</v>
       </c>
-      <c r="B81" t="s">
-        <v>90</v>
-      </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B89" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
         <v>96</v>
-      </c>
-      <c r="B90" t="s">
-        <v>315</v>
-      </c>
-      <c r="C90" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" t="s">
         <v>6</v>
       </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" t="s">
         <v>102</v>
       </c>
-      <c r="B95" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>103</v>
-      </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" t="s">
         <v>104</v>
       </c>
-      <c r="B96" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" t="s">
-        <v>105</v>
-      </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C151" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B152" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C152" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B153" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>318</v>
+      </c>
+      <c r="C154" t="s">
         <v>157</v>
       </c>
-      <c r="B154" t="s">
-        <v>320</v>
-      </c>
-      <c r="C154" t="s">
-        <v>158</v>
-      </c>
       <c r="D154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B155" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B157" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s">
+        <v>319</v>
+      </c>
+      <c r="C162" t="s">
+        <v>35</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
         <v>164</v>
-      </c>
-      <c r="B162" t="s">
-        <v>321</v>
-      </c>
-      <c r="C162" t="s">
-        <v>36</v>
-      </c>
-      <c r="D162" t="s">
-        <v>11</v>
-      </c>
-      <c r="E162" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>165</v>
+      </c>
+      <c r="C163" t="s">
+        <v>62</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" t="s">
         <v>166</v>
-      </c>
-      <c r="B163" t="s">
-        <v>166</v>
-      </c>
-      <c r="C163" t="s">
-        <v>63</v>
-      </c>
-      <c r="D163" t="s">
-        <v>11</v>
-      </c>
-      <c r="E163" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164" t="s">
+        <v>35</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" t="s">
         <v>168</v>
-      </c>
-      <c r="B164" t="s">
-        <v>168</v>
-      </c>
-      <c r="C164" t="s">
-        <v>36</v>
-      </c>
-      <c r="D164" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C167" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C168" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C169" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B170" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C170" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C171" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
         <v>177</v>
       </c>
-      <c r="B175" t="s">
-        <v>178</v>
-      </c>
       <c r="C175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D178" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B182" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C182" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C183" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D183" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187" t="s">
+        <v>35</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" t="s">
         <v>188</v>
-      </c>
-      <c r="B187" t="s">
-        <v>188</v>
-      </c>
-      <c r="C187" t="s">
-        <v>36</v>
-      </c>
-      <c r="D187" t="s">
-        <v>11</v>
-      </c>
-      <c r="E187" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B189" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C189" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="D189" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C190" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="D190" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B193" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B195" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C195" t="s">
+        <v>157</v>
+      </c>
+      <c r="D195" t="s">
         <v>6</v>
       </c>
-      <c r="D195" t="s">
-        <v>7</v>
-      </c>
       <c r="E195" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C196" t="s">
+        <v>157</v>
+      </c>
+      <c r="D196" t="s">
         <v>6</v>
       </c>
-      <c r="D196" t="s">
-        <v>7</v>
-      </c>
       <c r="E196" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C197" t="s">
+        <v>157</v>
+      </c>
+      <c r="D197" t="s">
         <v>6</v>
       </c>
-      <c r="D197" t="s">
-        <v>7</v>
-      </c>
       <c r="E197" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
         <v>200</v>
       </c>
-      <c r="B200" t="s">
-        <v>202</v>
-      </c>
       <c r="C200" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B202" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C204" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
         <v>211</v>
       </c>
-      <c r="B208" t="s">
-        <v>213</v>
-      </c>
       <c r="C208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D218" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="s">
         <v>222</v>
       </c>
-      <c r="B219" t="s">
-        <v>224</v>
-      </c>
       <c r="C219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C223" t="s">
+        <v>35</v>
+      </c>
+      <c r="D223" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" t="s">
         <v>36</v>
-      </c>
-      <c r="D223" t="s">
-        <v>11</v>
-      </c>
-      <c r="E223" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B224" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C224" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C225" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D225" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C226" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C227" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="s">
         <v>231</v>
       </c>
-      <c r="B228" t="s">
-        <v>233</v>
-      </c>
       <c r="C228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D229" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B234" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C237" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D239" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="s">
         <v>243</v>
       </c>
-      <c r="B240" t="s">
-        <v>245</v>
-      </c>
       <c r="C240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D243" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C244" t="s">
+        <v>35</v>
+      </c>
+      <c r="D244" t="s">
+        <v>10</v>
+      </c>
+      <c r="E244" t="s">
         <v>36</v>
-      </c>
-      <c r="D244" t="s">
-        <v>11</v>
-      </c>
-      <c r="E244" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D245" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E245" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B246" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E246" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E247" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E248" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B249" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D249" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D250" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E252" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C253" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D253" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C254" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E254" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D256" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E256" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D257" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E257" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C258" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E258" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C259" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D260" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E260" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C261" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E261" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D262" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E262" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C263" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D263" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E263" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C264" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E264" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>268</v>
+      </c>
+      <c r="B265" t="s">
         <v>270</v>
       </c>
-      <c r="B265" t="s">
-        <v>272</v>
-      </c>
       <c r="C265" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E265" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D266" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E266" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C267" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D267" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E267" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E268" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="B269" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
       <c r="C269" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E269" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="B270" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D270" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E270" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="B271" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="C271" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E271" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C272" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E272" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="C273" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="D273" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E273" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C274" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D274" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E274" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" t="s">
         <v>280</v>
       </c>
-      <c r="B275" t="s">
-        <v>282</v>
-      </c>
       <c r="C275" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E275" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C276" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C277" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D277" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E277" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E278" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E279" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C280" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D280" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E280" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C281" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D281" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E281" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C282" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E282" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D283" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E283" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D284" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E284" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C285" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E285" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="C286" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="D286" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E286" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="C287" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="D287" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E287" t="s">
-        <v>78</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" t="s">
+        <v>288</v>
+      </c>
+      <c r="C288" t="s">
+        <v>35</v>
+      </c>
+      <c r="D288" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>334</v>
+      </c>
+      <c r="B289" t="s">
+        <v>334</v>
+      </c>
+      <c r="C289" t="s">
+        <v>205</v>
+      </c>
+      <c r="D289" t="s">
+        <v>10</v>
+      </c>
+      <c r="E289" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290" t="s">
+        <v>334</v>
+      </c>
+      <c r="C290" t="s">
+        <v>205</v>
+      </c>
+      <c r="D290" t="s">
+        <v>10</v>
+      </c>
+      <c r="E290" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E288">
-    <sortCondition ref="B100:B288"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E291">
+    <sortCondition ref="B100:B291"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6563,16 +6617,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4B0F45-4307-4958-BD31-77C29ECE3F28}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3c1663fb-7c6c-47a6-a0f9-4709fb897591"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="e79fd3a6-737d-4cf1-803d-364f639fed05"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3c1663fb-7c6c-47a6-a0f9-4709fb897591"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/unique_aff.xlsx
+++ b/data/unique_aff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nlesc.sharepoint.com/sites/community/Shared Documents/data_analysis_events/NLeSc_workshop_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{122AC586-BCAB-4246-8B9C-3E336DC4A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{793D71C8-1555-1544-A706-6EEDB64FBF2A}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{122AC586-BCAB-4246-8B9C-3E336DC4A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC8B2942-7299-244E-9765-65333D39F9A6}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15020" xr2:uid="{5305868D-7B4F-4A49-978B-E34432471178}"/>
   </bookViews>
@@ -1427,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F45B2B4-7534-CB46-A4BA-39D7578F3E45}">
   <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="C270" sqref="C270"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2884,7 +2884,7 @@
         <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -2901,7 +2901,7 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -2918,7 +2918,7 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -6370,6 +6370,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F329B473B817EF4BAF5EC941AA9636D2" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60154e84d3bc079b0db6bb959eaaa164">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e79fd3a6-737d-4cf1-803d-364f639fed05" xmlns:ns3="3c1663fb-7c6c-47a6-a0f9-4709fb897591" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c12652e51acc1204cefa138f9d55f75" ns2:_="" ns3:_="">
     <xsd:import namespace="e79fd3a6-737d-4cf1-803d-364f639fed05"/>
@@ -6580,22 +6595,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE4D51F-0054-48D0-83AF-D1DF8CDDAD88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4B0F45-4307-4958-BD31-77C29ECE3F28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3c1663fb-7c6c-47a6-a0f9-4709fb897591"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e79fd3a6-737d-4cf1-803d-364f639fed05"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DCFD315-7CA8-4537-8120-109CE1150E9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6612,29 +6637,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4B0F45-4307-4958-BD31-77C29ECE3F28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3c1663fb-7c6c-47a6-a0f9-4709fb897591"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e79fd3a6-737d-4cf1-803d-364f639fed05"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE4D51F-0054-48D0-83AF-D1DF8CDDAD88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/unique_aff.xlsx
+++ b/data/unique_aff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nlesc.sharepoint.com/sites/community/Shared Documents/data_analysis_events/NLeSc_workshop_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{122AC586-BCAB-4246-8B9C-3E336DC4A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC8B2942-7299-244E-9765-65333D39F9A6}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{122AC586-BCAB-4246-8B9C-3E336DC4A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B967E729-7F11-764A-BF38-4D2DFB9C836D}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15020" xr2:uid="{5305868D-7B4F-4A49-978B-E34432471178}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="unique_aff" localSheetId="0">Sheet1!$A$1:$E$290</definedName>
+    <definedName name="unique_aff" localSheetId="0">Sheet1!$A$1:$E$294</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="343">
   <si>
     <t>affiliation</t>
   </si>
@@ -1070,6 +1070,18 @@
   </si>
   <si>
     <t>UNIVERSITY OF TILBURG</t>
+  </si>
+  <si>
+    <t>WAGENINGEN UNIVERSITY AND RESEARCH</t>
+  </si>
+  <si>
+    <t>ROYAL NETHERLANDS INSTITUTE FOR SEA RESEARCH (NIOZ)</t>
+  </si>
+  <si>
+    <t>NIOZ</t>
+  </si>
+  <si>
+    <t>NETHERLANDS INSTITUTE FOR SEA RESEARCH</t>
   </si>
 </sst>
 </file>
@@ -1425,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F45B2B4-7534-CB46-A4BA-39D7578F3E45}">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A250" sqref="A250"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4051,10 +4063,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B155" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C155" t="s">
         <v>157</v>
@@ -4068,10 +4080,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>342</v>
       </c>
       <c r="B156" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="C156" t="s">
         <v>157</v>
@@ -4085,16 +4097,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="C157" t="s">
         <v>157</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
@@ -4102,16 +4114,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C158" t="s">
         <v>157</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E158" t="s">
         <v>11</v>
@@ -4119,16 +4131,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C159" t="s">
         <v>157</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
@@ -4136,7 +4148,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="B160" t="s">
         <v>316</v>
@@ -4153,10 +4165,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C161" t="s">
         <v>157</v>
@@ -4170,115 +4182,115 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E162" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>316</v>
       </c>
       <c r="C163" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E163" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>317</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E164" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>319</v>
       </c>
       <c r="C165" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D166" t="s">
         <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D167" t="s">
         <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="B168" t="s">
-        <v>321</v>
+        <v>14</v>
       </c>
       <c r="C168" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D168" t="s">
         <v>10</v>
@@ -4289,13 +4301,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="C169" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
         <v>10</v>
@@ -4306,16 +4318,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>323</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C170" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="D170" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -4323,16 +4335,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C171" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="D171" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
@@ -4340,13 +4352,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="C172" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D172" t="s">
         <v>10</v>
@@ -4357,16 +4369,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>323</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>323</v>
       </c>
       <c r="C173" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
@@ -4374,16 +4386,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>323</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -4391,13 +4403,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D175" t="s">
         <v>10</v>
@@ -4408,13 +4420,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
@@ -4425,7 +4437,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="B177" t="s">
         <v>177</v>
@@ -4442,7 +4454,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>177</v>
@@ -4459,7 +4471,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>177</v>
@@ -4476,7 +4488,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>177</v>
@@ -4493,7 +4505,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B181" t="s">
         <v>177</v>
@@ -4510,13 +4522,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="C182" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D182" t="s">
         <v>10</v>
@@ -4527,13 +4539,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="C183" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D183" t="s">
         <v>10</v>
@@ -4544,13 +4556,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D184" t="s">
         <v>10</v>
@@ -4561,13 +4573,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>324</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>324</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D185" t="s">
         <v>10</v>
@@ -4578,10 +4590,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>324</v>
       </c>
       <c r="C186" t="s">
         <v>62</v>
@@ -4595,30 +4607,30 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
         <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D188" t="s">
         <v>10</v>
@@ -4629,16 +4641,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>325</v>
+        <v>186</v>
       </c>
       <c r="C189" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="D189" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
         <v>11</v>
@@ -4646,30 +4658,30 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>325</v>
+        <v>187</v>
       </c>
       <c r="C190" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="D190" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
@@ -4680,16 +4692,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>325</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>325</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E192" t="s">
         <v>11</v>
@@ -4697,16 +4709,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>328</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E193" t="s">
         <v>11</v>
@@ -4714,10 +4726,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>328</v>
+        <v>191</v>
       </c>
       <c r="C194" t="s">
         <v>21</v>
@@ -4731,109 +4743,109 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="C195" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>328</v>
       </c>
       <c r="B196" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="C196" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="D196" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B197" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="C197" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="D197" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="C198" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="C199" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="C200" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>200</v>
@@ -4850,13 +4862,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>311</v>
+        <v>197</v>
       </c>
       <c r="B202" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D202" t="s">
         <v>10</v>
@@ -4867,13 +4879,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B203" t="s">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D203" t="s">
         <v>10</v>
@@ -4884,30 +4896,30 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C204" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="D204" t="s">
         <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="B205" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
         <v>10</v>
@@ -4918,13 +4930,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B206" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
         <v>10</v>
@@ -4935,24 +4947,24 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="D207" t="s">
         <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
         <v>211</v>
@@ -4969,7 +4981,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>211</v>
@@ -4986,7 +4998,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -5003,7 +5015,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
         <v>211</v>
@@ -5020,7 +5032,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
         <v>211</v>
@@ -5037,7 +5049,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>211</v>
@@ -5054,7 +5066,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>211</v>
@@ -5071,10 +5083,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C215" t="s">
         <v>35</v>
@@ -5088,10 +5100,10 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C216" t="s">
         <v>35</v>
@@ -5105,10 +5117,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C217" t="s">
         <v>35</v>
@@ -5122,7 +5134,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>222</v>
@@ -5139,7 +5151,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>222</v>
@@ -5156,7 +5168,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>222</v>
@@ -5173,7 +5185,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5190,7 +5202,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
         <v>222</v>
@@ -5207,10 +5219,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C223" t="s">
         <v>35</v>
@@ -5219,18 +5231,18 @@
         <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D224" t="s">
         <v>10</v>
@@ -5241,13 +5253,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="C225" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D225" t="s">
         <v>10</v>
@@ -5258,24 +5270,24 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="C226" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D226" t="s">
         <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B227" t="s">
         <v>304</v>
@@ -5292,10 +5304,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="C228" t="s">
         <v>46</v>
@@ -5309,10 +5321,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="C229" t="s">
         <v>46</v>
@@ -5326,10 +5338,10 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="C230" t="s">
         <v>46</v>
@@ -5343,7 +5355,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B231" t="s">
         <v>231</v>
@@ -5360,7 +5372,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
         <v>231</v>
@@ -5377,61 +5389,61 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D233" t="s">
         <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="C234" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D234" t="s">
         <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D235" t="s">
         <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="C236" t="s">
         <v>35</v>
@@ -5440,15 +5452,15 @@
         <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="B237" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="C237" t="s">
         <v>35</v>
@@ -5457,15 +5469,15 @@
         <v>10</v>
       </c>
       <c r="E237" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B238" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C238" t="s">
         <v>35</v>
@@ -5474,12 +5486,12 @@
         <v>10</v>
       </c>
       <c r="E238" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>243</v>
@@ -5496,7 +5508,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
         <v>243</v>
@@ -5513,7 +5525,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
         <v>243</v>
@@ -5530,7 +5542,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B242" t="s">
         <v>243</v>
@@ -5547,7 +5559,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B243" t="s">
         <v>243</v>
@@ -5564,10 +5576,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C244" t="s">
         <v>35</v>
@@ -5576,15 +5588,15 @@
         <v>10</v>
       </c>
       <c r="E244" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="C245" t="s">
         <v>35</v>
@@ -5593,15 +5605,15 @@
         <v>10</v>
       </c>
       <c r="E245" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="C246" t="s">
         <v>35</v>
@@ -5610,15 +5622,15 @@
         <v>10</v>
       </c>
       <c r="E246" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>331</v>
+        <v>245</v>
       </c>
       <c r="C247" t="s">
         <v>35</v>
@@ -5627,15 +5639,15 @@
         <v>10</v>
       </c>
       <c r="E247" t="s">
-        <v>248</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C248" t="s">
         <v>35</v>
@@ -5644,15 +5656,15 @@
         <v>10</v>
       </c>
       <c r="E248" t="s">
-        <v>250</v>
+        <v>69</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="C249" t="s">
         <v>35</v>
@@ -5661,15 +5673,15 @@
         <v>10</v>
       </c>
       <c r="E249" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="C250" t="s">
         <v>35</v>
@@ -5678,15 +5690,15 @@
         <v>10</v>
       </c>
       <c r="E250" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="C251" t="s">
         <v>35</v>
@@ -5695,15 +5707,15 @@
         <v>10</v>
       </c>
       <c r="E251" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C252" t="s">
         <v>35</v>
@@ -5712,15 +5724,15 @@
         <v>10</v>
       </c>
       <c r="E252" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C253" t="s">
         <v>35</v>
@@ -5734,10 +5746,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C254" t="s">
         <v>35</v>
@@ -5751,10 +5763,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C255" t="s">
         <v>35</v>
@@ -5763,12 +5775,12 @@
         <v>10</v>
       </c>
       <c r="E255" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B256" t="s">
         <v>257</v>
@@ -5785,7 +5797,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B257" t="s">
         <v>257</v>
@@ -5802,10 +5814,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C258" t="s">
         <v>35</v>
@@ -5819,10 +5831,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C259" t="s">
         <v>35</v>
@@ -5836,10 +5848,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C260" t="s">
         <v>35</v>
@@ -5853,7 +5865,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B261" t="s">
         <v>270</v>
@@ -5870,7 +5882,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B262" t="s">
         <v>270</v>
@@ -5887,7 +5899,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B263" t="s">
         <v>270</v>
@@ -5904,7 +5916,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B264" t="s">
         <v>270</v>
@@ -5921,7 +5933,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B265" t="s">
         <v>270</v>
@@ -5938,7 +5950,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B266" t="s">
         <v>270</v>
@@ -5955,7 +5967,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B267" t="s">
         <v>270</v>
@@ -5972,7 +5984,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B268" t="s">
         <v>270</v>
@@ -5989,10 +6001,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>338</v>
+        <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="C269" t="s">
         <v>35</v>
@@ -6006,10 +6018,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="C270" t="s">
         <v>35</v>
@@ -6023,10 +6035,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>336</v>
+        <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="C271" t="s">
         <v>35</v>
@@ -6040,10 +6052,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="B272" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="C272" t="s">
         <v>35</v>
@@ -6057,27 +6069,27 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="B273" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C273" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="D273" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E273" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="B274" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="C274" t="s">
         <v>35</v>
@@ -6091,10 +6103,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C275" t="s">
         <v>35</v>
@@ -6108,24 +6120,24 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B276" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="C276" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="D276" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E276" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B277" t="s">
         <v>280</v>
@@ -6142,7 +6154,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B278" t="s">
         <v>280</v>
@@ -6159,7 +6171,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B279" t="s">
         <v>280</v>
@@ -6176,7 +6188,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B280" t="s">
         <v>280</v>
@@ -6193,7 +6205,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B281" t="s">
         <v>280</v>
@@ -6210,7 +6222,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B282" t="s">
         <v>280</v>
@@ -6227,10 +6239,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B283" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C283" t="s">
         <v>35</v>
@@ -6244,10 +6256,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B284" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C284" t="s">
         <v>35</v>
@@ -6261,10 +6273,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C285" t="s">
         <v>35</v>
@@ -6278,16 +6290,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C286" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="D286" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E286" t="s">
         <v>11</v>
@@ -6295,16 +6307,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C287" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="D287" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E287" t="s">
         <v>11</v>
@@ -6312,10 +6324,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="B288" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C288" t="s">
         <v>35</v>
@@ -6324,46 +6336,114 @@
         <v>10</v>
       </c>
       <c r="E288" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="B289" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="C289" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="D289" t="s">
         <v>10</v>
       </c>
       <c r="E289" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>286</v>
+      </c>
+      <c r="B290" t="s">
+        <v>286</v>
+      </c>
+      <c r="C290" t="s">
+        <v>157</v>
+      </c>
+      <c r="D290" t="s">
+        <v>29</v>
+      </c>
+      <c r="E290" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>287</v>
+      </c>
+      <c r="B291" t="s">
+        <v>286</v>
+      </c>
+      <c r="C291" t="s">
+        <v>157</v>
+      </c>
+      <c r="D291" t="s">
+        <v>29</v>
+      </c>
+      <c r="E291" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>288</v>
+      </c>
+      <c r="B292" t="s">
+        <v>288</v>
+      </c>
+      <c r="C292" t="s">
+        <v>35</v>
+      </c>
+      <c r="D292" t="s">
+        <v>10</v>
+      </c>
+      <c r="E292" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>334</v>
+      </c>
+      <c r="B293" t="s">
+        <v>334</v>
+      </c>
+      <c r="C293" t="s">
+        <v>205</v>
+      </c>
+      <c r="D293" t="s">
+        <v>10</v>
+      </c>
+      <c r="E293" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
         <v>290</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B294" t="s">
         <v>334</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C294" t="s">
         <v>205</v>
       </c>
-      <c r="D290" t="s">
-        <v>10</v>
-      </c>
-      <c r="E290" t="s">
+      <c r="D294" t="s">
+        <v>10</v>
+      </c>
+      <c r="E294" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E291">
-    <sortCondition ref="B100:B291"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E295">
+    <sortCondition ref="B100:B295"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6379,12 +6459,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F329B473B817EF4BAF5EC941AA9636D2" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60154e84d3bc079b0db6bb959eaaa164">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e79fd3a6-737d-4cf1-803d-364f639fed05" xmlns:ns3="3c1663fb-7c6c-47a6-a0f9-4709fb897591" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c12652e51acc1204cefa138f9d55f75" ns2:_="" ns3:_="">
     <xsd:import namespace="e79fd3a6-737d-4cf1-803d-364f639fed05"/>
@@ -6595,6 +6669,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="3c1663fb-7c6c-47a6-a0f9-4709fb897591">
+      <UserInfo>
+        <DisplayName>veronica pang</DisplayName>
+        <AccountId>159</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE4D51F-0054-48D0-83AF-D1DF8CDDAD88}">
   <ds:schemaRefs>
@@ -6604,23 +6692,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4B0F45-4307-4958-BD31-77C29ECE3F28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="3c1663fb-7c6c-47a6-a0f9-4709fb897591"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e79fd3a6-737d-4cf1-803d-364f639fed05"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DCFD315-7CA8-4537-8120-109CE1150E9F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6637,4 +6708,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4B0F45-4307-4958-BD31-77C29ECE3F28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="3c1663fb-7c6c-47a6-a0f9-4709fb897591"/>
+    <ds:schemaRef ds:uri="e79fd3a6-737d-4cf1-803d-364f639fed05"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>